--- a/3. Excel Impressionador/Formatação Condicional/1. Regras de Realce.xlsx
+++ b/3. Excel Impressionador/Formatação Condicional/1. Regras de Realce.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\Excel Impressionador\Formatação Condicional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel Impressionador\Formatação Condicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98FC0C9-571A-45AB-AAD5-18E62E2FC9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFFCDA0-040D-4A97-BC47-FE6846FF9EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,11 @@
 - Aprendemos a fazer FORMATAÇÃO CONDICIONAL básica
 - Aprendemos a fazer FORMATAÇÃO CONDICIONAL com textos (Contém e Igual a)
 - Aprendemos a fazer FORMATAÇÃO CONDICIONAL com números (Maior que, Está Entre, Menor que)
+- Aprendemos a fazer FORMATAÇÃO CONDICIONAL com formatação específicas (Gradiente, Alterar cores, Alterar fonte, Inserir Bordas)
+- Aprendemos a GERENCIAR AS REGRAS DA FORMATAÇÃO CONDICIONAL (Excluir, Criar nova Regra)
 - Aprendemos a fazer COMENTÁRIOS
 - Aprendemos a CRIAR UMA NOVA COLUNA À ESQUERDA
-- Aprendemos a fazer FORMATAÇÃO CONDICIONAL com formatação específicas (Gradiente, Alterar cores, Alterar fonte, Inserir Bordas)
-- Aprendemos a GERENCIAR AS REGRAS DA FORMATAÇÃO CONDICIONAL (Excluir, Criar nova Regra)</t>
+</t>
         </r>
       </text>
     </comment>
@@ -164,15 +165,16 @@
     <t>Acima de 120.000</t>
   </si>
   <si>
-    <t>Backlog</t>
+    <t>Notas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -269,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -284,11 +286,170 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF47878"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -361,18 +522,18 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF89F7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -382,6 +543,23 @@
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FFFF5353"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF9393"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
@@ -427,329 +605,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF89F7EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF89F7EA"/>
         </patternFill>
       </fill>
@@ -758,10 +613,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF47878"/>
+      <color rgb="FFFF8181"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFFF9393"/>
       <color rgb="FF89F7EA"/>
-      <color rgb="FFFF8181"/>
       <color rgb="FF61FFA8"/>
       <color rgb="FFFF5D5D"/>
       <color rgb="FFFFFF81"/>
@@ -1078,22 +934,24 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="2" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +969,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1124,6 +982,9 @@
       <c r="D3" s="5">
         <v>5000000</v>
       </c>
+      <c r="G3" s="8">
+        <v>30000</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
@@ -1131,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1144,6 +1005,9 @@
       <c r="D4" s="5">
         <v>1000000</v>
       </c>
+      <c r="G4" s="8">
+        <v>500000</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1164,6 +1028,9 @@
       <c r="D5" s="5">
         <v>3784900</v>
       </c>
+      <c r="G5" s="8">
+        <v>1000000</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1052,7 @@
         <v>207704</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1066,7 @@
         <v>2212501</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1094,7 @@
         <v>4217006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1108,7 @@
         <v>942462</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1122,7 @@
         <v>732552</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1150,7 @@
         <v>1187450</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1164,7 @@
         <v>668550</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1178,7 @@
         <v>1936197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1192,7 @@
         <v>2200125</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1206,7 @@
         <v>2677101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1363,50 +1230,20 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>120000</formula>
+  <conditionalFormatting sqref="D3:D18">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>$G$5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Inter">
-      <formula>NOT(ISERROR(SEARCH("Inter",B3)))</formula>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+      <formula>$G$4</formula>
+      <formula>$G$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Nacional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>30000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>30000</formula>
-      <formula>120000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E43EF003-00D2-4205-81F3-B3997CFFDC51}">
-            <xm:f>NOT(ISERROR(SEARCH($C$2,C2)))</xm:f>
-            <xm:f>$C$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>